--- a/customeraccountsheet.xlsx
+++ b/customeraccountsheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Account Id</t>
   </si>
@@ -26,52 +26,49 @@
     <t>Balance Date</t>
   </si>
   <si>
-    <t>Qupa Tubi</t>
+    <t>Kami Wezi</t>
   </si>
   <si>
     <t>000000000000</t>
   </si>
   <si>
-    <t>0.94</t>
+    <t>0.15</t>
   </si>
   <si>
     <t>2023-02-14</t>
   </si>
   <si>
-    <t>Yawe Fine</t>
+    <t>Lide Juxi</t>
   </si>
   <si>
     <t>000000000001</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>Dutu Ziko</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>Nefu Kiro</t>
   </si>
   <si>
     <t>000000000002</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>Muvi Deve</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>Movo Yika</t>
   </si>
   <si>
     <t>000000000003</t>
   </si>
   <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Fege Domo</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>Qoli Fave</t>
   </si>
   <si>
     <t>000000000004</t>
-  </si>
-  <si>
-    <t>0.6</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>7</v>
